--- a/Code/Results/Cases/Case_3_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7957430812810458</v>
+        <v>0.2992651321056314</v>
       </c>
       <c r="C2">
-        <v>0.09260797228495221</v>
+        <v>0.03537740902002895</v>
       </c>
       <c r="D2">
-        <v>0.04014742421150785</v>
+        <v>0.0302029487070179</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7643390764284561</v>
+        <v>0.911962873044402</v>
       </c>
       <c r="G2">
-        <v>0.678217680251592</v>
+        <v>0.7620888783238087</v>
       </c>
       <c r="H2">
-        <v>0.4667708705014491</v>
+        <v>0.8275719869384233</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7915577035278147</v>
+        <v>0.2580512119084233</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.775658504542577</v>
+        <v>0.8842635028906898</v>
       </c>
       <c r="N2">
-        <v>0.8846201812547108</v>
+        <v>1.698872570602802</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6898966272559335</v>
+        <v>0.2693374846342635</v>
       </c>
       <c r="C3">
-        <v>0.08310461325575602</v>
+        <v>0.03226038484955041</v>
       </c>
       <c r="D3">
-        <v>0.03800789481872258</v>
+        <v>0.02925759992202615</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7093625430955086</v>
+        <v>0.9029426628173383</v>
       </c>
       <c r="G3">
-        <v>0.6309814275391972</v>
+        <v>0.7542035276183725</v>
       </c>
       <c r="H3">
-        <v>0.4517909125291339</v>
+        <v>0.8281616380371162</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6873762631687867</v>
+        <v>0.2276848303391574</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.36232384318744</v>
+        <v>0.7874571915405966</v>
       </c>
       <c r="N3">
-        <v>0.9213445506891489</v>
+        <v>1.713920251458752</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6252241893117514</v>
+        <v>0.2510503727820605</v>
       </c>
       <c r="C4">
-        <v>0.07724956265347771</v>
+        <v>0.03032946657226887</v>
       </c>
       <c r="D4">
-        <v>0.03667144284019841</v>
+        <v>0.02866764449029091</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6770437101384132</v>
+        <v>0.8979311507071799</v>
       </c>
       <c r="G4">
-        <v>0.6034067626949451</v>
+        <v>0.7498336924256392</v>
       </c>
       <c r="H4">
-        <v>0.4434011316664481</v>
+        <v>0.8288897596504512</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6236138074733759</v>
+        <v>0.2090696262872029</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.117423545652798</v>
+        <v>0.7285494954619338</v>
       </c>
       <c r="N4">
-        <v>0.9453213260554918</v>
+        <v>1.723748593703235</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5989358904299138</v>
+        <v>0.2436207805673973</v>
       </c>
       <c r="C5">
-        <v>0.07485814692655879</v>
+        <v>0.02953834078065398</v>
       </c>
       <c r="D5">
-        <v>0.03612145562555824</v>
+        <v>0.0284248633566051</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6642074351537559</v>
+        <v>0.8960212325221875</v>
       </c>
       <c r="G5">
-        <v>0.5925008227663824</v>
+        <v>0.7481712900979431</v>
       </c>
       <c r="H5">
-        <v>0.4401732805737453</v>
+        <v>0.8292784951110832</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5976697598802758</v>
+        <v>0.2014915633193226</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.019478691640543</v>
+        <v>0.7046717085652574</v>
       </c>
       <c r="N5">
-        <v>0.9554364910363304</v>
+        <v>1.727901593689253</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5945743543583717</v>
+        <v>0.2423884729192878</v>
       </c>
       <c r="C6">
-        <v>0.07446071296998724</v>
+        <v>0.02940671839564146</v>
       </c>
       <c r="D6">
-        <v>0.03602981568700159</v>
+        <v>0.02838440724648805</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.66209538725154</v>
+        <v>0.8957120780517798</v>
       </c>
       <c r="G6">
-        <v>0.5907091051617783</v>
+        <v>0.7479023883238511</v>
       </c>
       <c r="H6">
-        <v>0.4396485006855073</v>
+        <v>0.8293486012188822</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5933638270097958</v>
+        <v>0.2002337098711706</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.003316875175841</v>
+        <v>0.7007143481772857</v>
       </c>
       <c r="N6">
-        <v>0.9571365030227597</v>
+        <v>1.728600120253859</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6248694054087878</v>
+        <v>0.2509500830099114</v>
       </c>
       <c r="C7">
-        <v>0.07721733377263718</v>
+        <v>0.03031881438927542</v>
       </c>
       <c r="D7">
-        <v>0.03666404683779234</v>
+        <v>0.02866437982522285</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6768692783480006</v>
+        <v>0.8979048574030912</v>
       </c>
       <c r="G7">
-        <v>0.6032583770447815</v>
+        <v>0.7498107939264855</v>
       </c>
       <c r="H7">
-        <v>0.4433568415120845</v>
+        <v>0.8288946297353448</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.623263771779591</v>
+        <v>0.2089673940031389</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.116095584711175</v>
+        <v>0.7282269627317106</v>
       </c>
       <c r="N7">
-        <v>0.9454563666097329</v>
+        <v>1.723804004127182</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7591728133277513</v>
+        <v>0.2889278510871804</v>
       </c>
       <c r="C8">
-        <v>0.08933511463602173</v>
+        <v>0.03430621386409172</v>
       </c>
       <c r="D8">
-        <v>0.03941466911586744</v>
+        <v>0.02987897818983498</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7450677050409809</v>
+        <v>0.908743220459229</v>
       </c>
       <c r="G8">
-        <v>0.661616351534775</v>
+        <v>0.7592719026954029</v>
       </c>
       <c r="H8">
-        <v>0.4614304857779388</v>
+        <v>0.8276992985167766</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7555859195353065</v>
+        <v>0.2475748356261107</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.631048078849233</v>
+        <v>0.8507705626288811</v>
       </c>
       <c r="N8">
-        <v>0.8969772465352648</v>
+        <v>1.703938619192542</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.025726127058732</v>
+        <v>0.3640966742646299</v>
       </c>
       <c r="C9">
-        <v>0.1129561097778833</v>
+        <v>0.04198932602071181</v>
       </c>
       <c r="D9">
-        <v>0.04460907776256562</v>
+        <v>0.03218452301479857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8915751847961531</v>
+        <v>0.9341891021150985</v>
       </c>
       <c r="G9">
-        <v>0.7888058091498209</v>
+        <v>0.7815841374593049</v>
       </c>
       <c r="H9">
-        <v>0.5038865652093421</v>
+        <v>0.8282622403939399</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.017274928469817</v>
+        <v>0.3235128745002953</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.732225517639463</v>
+        <v>1.095590066422005</v>
       </c>
       <c r="N9">
-        <v>0.8139584312769514</v>
+        <v>1.669666600448416</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.224498828611274</v>
+        <v>0.4197411787082501</v>
       </c>
       <c r="C10">
-        <v>0.1302384575056124</v>
+        <v>0.04755043368105305</v>
       </c>
       <c r="D10">
-        <v>0.04827095957825378</v>
+        <v>0.03383090674083888</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.009146704722937</v>
+        <v>0.955458280623958</v>
       </c>
       <c r="G10">
-        <v>0.8922520487435861</v>
+        <v>0.8002929908857794</v>
       </c>
       <c r="H10">
-        <v>0.5402961633834735</v>
+        <v>0.8304525804958587</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.211730075447207</v>
+        <v>0.3794388716311801</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.633685390497618</v>
+        <v>1.278637452005171</v>
       </c>
       <c r="N10">
-        <v>0.7614179247340473</v>
+        <v>1.647356370700479</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.315798800812871</v>
+        <v>0.4451452708037493</v>
       </c>
       <c r="C11">
-        <v>0.1380835685293249</v>
+        <v>0.05006204158269156</v>
       </c>
       <c r="D11">
-        <v>0.04989312592383044</v>
+        <v>0.03456937105467262</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.065351406606567</v>
+        <v>0.9656973931339081</v>
       </c>
       <c r="G11">
-        <v>0.9420706712739104</v>
+        <v>0.8093125455051506</v>
       </c>
       <c r="H11">
-        <v>0.5582373242759786</v>
+        <v>0.8318359343193151</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.300861873101638</v>
+        <v>0.4049094492698089</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.075203118197251</v>
+        <v>1.362696580864935</v>
       </c>
       <c r="N11">
-        <v>0.7396354722912903</v>
+        <v>1.637833022364504</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.350518309182974</v>
+        <v>0.4547780446199852</v>
       </c>
       <c r="C12">
-        <v>0.1410511844641036</v>
+        <v>0.05101048768428029</v>
       </c>
       <c r="D12">
-        <v>0.05049993329548386</v>
+        <v>0.03484748050702535</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.087081382702678</v>
+        <v>0.9696560145661124</v>
       </c>
       <c r="G12">
-        <v>0.961391033731374</v>
+        <v>0.8128015748975344</v>
       </c>
       <c r="H12">
-        <v>0.5652533721647899</v>
+        <v>0.8324154906566577</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.334726370331282</v>
+        <v>0.4145585492597661</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.248218885216289</v>
+        <v>1.3946488791576</v>
       </c>
       <c r="N12">
-        <v>0.7317192310428027</v>
+        <v>1.634317038578189</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.343034009867182</v>
+        <v>0.4527028902537609</v>
       </c>
       <c r="C13">
-        <v>0.1404122147242077</v>
+        <v>0.05080634102064607</v>
       </c>
       <c r="D13">
-        <v>0.05036960182734873</v>
+        <v>0.03478765312213028</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.082380606984302</v>
+        <v>0.9687998353013683</v>
       </c>
       <c r="G13">
-        <v>0.9572087699152263</v>
+        <v>0.8120468744887432</v>
       </c>
       <c r="H13">
-        <v>0.5637320397765961</v>
+        <v>0.8322881940191706</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.327427810383512</v>
+        <v>0.4124802723470111</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.210672857276137</v>
+        <v>1.387761882820485</v>
       </c>
       <c r="N13">
-        <v>0.7334088753760284</v>
+        <v>1.635070247108807</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.318652147302572</v>
+        <v>0.4459375102281911</v>
       </c>
       <c r="C14">
-        <v>0.1383277859713843</v>
+        <v>0.05014012401730383</v>
       </c>
       <c r="D14">
-        <v>0.04994320624098236</v>
+        <v>0.0345922821026079</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.067129847473097</v>
+        <v>0.9660214407153234</v>
       </c>
       <c r="G14">
-        <v>0.9436506782519842</v>
+        <v>0.8095981145621067</v>
       </c>
       <c r="H14">
-        <v>0.5588099365347006</v>
+        <v>0.8318824978635604</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.303645588865606</v>
+        <v>0.405703209220718</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.089311669767881</v>
+        <v>1.365322849361377</v>
       </c>
       <c r="N14">
-        <v>0.7389773667948276</v>
+        <v>1.637541948583262</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.303737203387414</v>
+        <v>0.4417951768134856</v>
       </c>
       <c r="C15">
-        <v>0.1370505688269503</v>
+        <v>0.04973170139452066</v>
       </c>
       <c r="D15">
-        <v>0.04968101190010543</v>
+        <v>0.03447241164374759</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.057848256393314</v>
+        <v>0.9643301875311181</v>
       </c>
       <c r="G15">
-        <v>0.9354071248197044</v>
+        <v>0.8081077634380307</v>
       </c>
       <c r="H15">
-        <v>0.555824707109096</v>
+        <v>0.8316412543800737</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.289093361164163</v>
+        <v>0.4015525670527325</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.015777991134712</v>
+        <v>1.351594263080585</v>
       </c>
       <c r="N15">
-        <v>0.7424323882284511</v>
+        <v>1.639067706880013</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.218551502524178</v>
+        <v>0.4180827688831812</v>
       </c>
       <c r="C16">
-        <v>0.1297253738287623</v>
+        <v>0.04738592581635714</v>
       </c>
       <c r="D16">
-        <v>0.04816397458252197</v>
+        <v>0.03378243339876974</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.005532865297099</v>
+        <v>0.9548004930713176</v>
       </c>
       <c r="G16">
-        <v>0.8890565860754833</v>
+        <v>0.7997138104182824</v>
       </c>
       <c r="H16">
-        <v>0.5391533631164691</v>
+        <v>0.830369967254498</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.205919968215881</v>
+        <v>0.3777748781845958</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.605566648481101</v>
+        <v>1.273160509059991</v>
       </c>
       <c r="N16">
-        <v>0.7628863714310796</v>
+        <v>1.647991362278908</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.166531444102247</v>
+        <v>0.4035590950264805</v>
       </c>
       <c r="C17">
-        <v>0.1252269653696061</v>
+        <v>0.04594219199323391</v>
       </c>
       <c r="D17">
-        <v>0.04722139649109636</v>
+        <v>0.03335645226948003</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9741725323991943</v>
+        <v>0.949098868842924</v>
       </c>
       <c r="G17">
-        <v>0.8613674980709618</v>
+        <v>0.7946949598590436</v>
       </c>
       <c r="H17">
-        <v>0.529294949856677</v>
+        <v>0.8296892292510734</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.155079173746117</v>
+        <v>0.3631953899459006</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.362781732097162</v>
+        <v>1.22525142959384</v>
       </c>
       <c r="N17">
-        <v>0.775995394851158</v>
+        <v>1.6536262211267</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.136692187521788</v>
+        <v>0.3952140577759451</v>
       </c>
       <c r="C18">
-        <v>0.1226380993598042</v>
+        <v>0.04511008641080139</v>
       </c>
       <c r="D18">
-        <v>0.04667523104652105</v>
+        <v>0.03311045379273025</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9563872317541637</v>
+        <v>0.9458724849509963</v>
       </c>
       <c r="G18">
-        <v>0.8456973081960939</v>
+        <v>0.7918561193228584</v>
       </c>
       <c r="H18">
-        <v>0.5237527560013149</v>
+        <v>0.8293341049032392</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.125899320266257</v>
+        <v>0.3548124546300357</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.226001461938353</v>
+        <v>1.197769298738194</v>
       </c>
       <c r="N18">
-        <v>0.7837329081222677</v>
+        <v>1.656926115542383</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.126602499113602</v>
+        <v>0.3923900572998775</v>
       </c>
       <c r="C19">
-        <v>0.1217613097235102</v>
+        <v>0.04482805738992113</v>
       </c>
       <c r="D19">
-        <v>0.04648964948484036</v>
+        <v>0.03302699440436641</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9504072308094038</v>
+        <v>0.9447891891763334</v>
       </c>
       <c r="G19">
-        <v>0.8404339723779941</v>
+        <v>0.7909031475950314</v>
       </c>
       <c r="H19">
-        <v>0.5218975953155507</v>
+        <v>0.8292201187632742</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.116029775093381</v>
+        <v>0.3519746271132362</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.180147950807921</v>
+        <v>1.188476794104588</v>
       </c>
       <c r="N19">
-        <v>0.7863858414095404</v>
+        <v>1.658053504598193</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.172060511574358</v>
+        <v>0.4051042775038525</v>
       </c>
       <c r="C20">
-        <v>0.1257059874808846</v>
+        <v>0.04609605693977414</v>
       </c>
       <c r="D20">
-        <v>0.04732215910580351</v>
+        <v>0.03340190084234251</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9774844058740655</v>
+        <v>0.9497003253660807</v>
       </c>
       <c r="G20">
-        <v>0.864288179319928</v>
+        <v>0.7952242681968755</v>
       </c>
       <c r="H20">
-        <v>0.530330974659833</v>
+        <v>0.8297579253615908</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.160484690292833</v>
+        <v>0.3647471137100808</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.388322021094453</v>
+        <v>1.230343731499929</v>
       </c>
       <c r="N20">
-        <v>0.774579282373665</v>
+        <v>1.653020285330101</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.325809558928938</v>
+        <v>0.4479243215287738</v>
       </c>
       <c r="C21">
-        <v>0.138940128124375</v>
+        <v>0.0503358801554441</v>
       </c>
       <c r="D21">
-        <v>0.0500686631058187</v>
+        <v>0.03464970904276043</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.071596761892209</v>
+        <v>0.9668353144008393</v>
       </c>
       <c r="G21">
-        <v>0.9476201522728758</v>
+        <v>0.810315376559771</v>
       </c>
       <c r="H21">
-        <v>0.5602494397070643</v>
+        <v>0.832000148158258</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.310627836108921</v>
+        <v>0.4076936923102323</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.124788028362218</v>
+        <v>1.371910396015082</v>
       </c>
       <c r="N21">
-        <v>0.7373325083194828</v>
+        <v>1.63681349653811</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.427155561620111</v>
+        <v>0.4759841345143059</v>
       </c>
       <c r="C22">
-        <v>0.1475701213342546</v>
+        <v>0.05309141551904872</v>
       </c>
       <c r="D22">
-        <v>0.05181925893779038</v>
+        <v>0.03545628940837275</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.135739881335923</v>
+        <v>0.9785079639866439</v>
       </c>
       <c r="G22">
-        <v>1.004770183303208</v>
+        <v>0.8206069853408309</v>
       </c>
       <c r="H22">
-        <v>0.5811116268760657</v>
+        <v>0.8337903248114031</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.409416066095446</v>
+        <v>0.4357846166890056</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.640972314183401</v>
+        <v>1.465140809049089</v>
       </c>
       <c r="N22">
-        <v>0.7149421654171704</v>
+        <v>1.626747926391204</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.372979527138597</v>
+        <v>0.4610013749589257</v>
       </c>
       <c r="C23">
-        <v>0.1429663292983037</v>
+        <v>0.05162215755679256</v>
       </c>
       <c r="D23">
-        <v>0.05088949502648887</v>
+        <v>0.03502662751023422</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.101243562556618</v>
+        <v>0.9722346055842621</v>
       </c>
       <c r="G23">
-        <v>0.9740001819540822</v>
+        <v>0.8150748160542349</v>
       </c>
       <c r="H23">
-        <v>0.5698483825809006</v>
+        <v>0.8328051362899629</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.356625427300855</v>
+        <v>0.4207899717383725</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.36174353319241</v>
+        <v>1.415314690538509</v>
       </c>
       <c r="N23">
-        <v>0.7267034996569848</v>
+        <v>1.632071825415458</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.169560610592868</v>
+        <v>0.4044056854805831</v>
       </c>
       <c r="C24">
-        <v>0.1254894298570548</v>
+        <v>0.04602650108606099</v>
       </c>
       <c r="D24">
-        <v>0.04727661752631462</v>
+        <v>0.03338135695498323</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9759863513807687</v>
+        <v>0.9494282463049899</v>
       </c>
       <c r="G24">
-        <v>0.8629669691417803</v>
+        <v>0.7949848228889635</v>
       </c>
       <c r="H24">
-        <v>0.5298621985768079</v>
+        <v>0.8297267549720573</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.15804070419847</v>
+        <v>0.3640455824672983</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.376766627628996</v>
+        <v>1.228041310997895</v>
       </c>
       <c r="N24">
-        <v>0.7752188829186011</v>
+        <v>1.653294040985863</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.953176493903527</v>
+        <v>0.3436877254603985</v>
       </c>
       <c r="C25">
-        <v>0.1065791015299737</v>
+        <v>0.03992548624762549</v>
       </c>
       <c r="D25">
-        <v>0.04322815753344145</v>
+        <v>0.03156908162210925</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8503674799932668</v>
+        <v>0.9268546352191436</v>
       </c>
       <c r="G25">
-        <v>0.7528192366702768</v>
+        <v>0.7751431425863871</v>
       </c>
       <c r="H25">
-        <v>0.4915595474373191</v>
+        <v>0.8277982722988213</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9461596187568091</v>
+        <v>0.3029456556859884</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.421246708759952</v>
+        <v>1.028833229057994</v>
       </c>
       <c r="N25">
-        <v>0.8350202515053837</v>
+        <v>1.678435218975068</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2992651321056314</v>
+        <v>0.7957430812809037</v>
       </c>
       <c r="C2">
-        <v>0.03537740902002895</v>
+        <v>0.09260797228461115</v>
       </c>
       <c r="D2">
-        <v>0.0302029487070179</v>
+        <v>0.04014742421122008</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.911962873044402</v>
+        <v>0.7643390764284419</v>
       </c>
       <c r="G2">
-        <v>0.7620888783238087</v>
+        <v>0.6782176802515352</v>
       </c>
       <c r="H2">
-        <v>0.8275719869384233</v>
+        <v>0.4667708705014491</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2580512119084233</v>
+        <v>0.7915577035278716</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8842635028906898</v>
+        <v>2.775658504542562</v>
       </c>
       <c r="N2">
-        <v>1.698872570602802</v>
+        <v>0.8846201812546326</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2693374846342635</v>
+        <v>0.6898966272559051</v>
       </c>
       <c r="C3">
-        <v>0.03226038484955041</v>
+        <v>0.08310461325608287</v>
       </c>
       <c r="D3">
-        <v>0.02925759992202615</v>
+        <v>0.03800789481884337</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9029426628173383</v>
+        <v>0.7093625430955086</v>
       </c>
       <c r="G3">
-        <v>0.7542035276183725</v>
+        <v>0.630981427539254</v>
       </c>
       <c r="H3">
-        <v>0.8281616380371162</v>
+        <v>0.4517909125291055</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2276848303391574</v>
+        <v>0.6873762631687015</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7874571915405966</v>
+        <v>2.362323843187426</v>
       </c>
       <c r="N3">
-        <v>1.713920251458752</v>
+        <v>0.921344550689092</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2510503727820605</v>
+        <v>0.6252241893116945</v>
       </c>
       <c r="C4">
-        <v>0.03032946657226887</v>
+        <v>0.07724956265393246</v>
       </c>
       <c r="D4">
-        <v>0.02866764449029091</v>
+        <v>0.03667144283997459</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8979311507071799</v>
+        <v>0.6770437101384204</v>
       </c>
       <c r="G4">
-        <v>0.7498336924256392</v>
+        <v>0.6034067626949877</v>
       </c>
       <c r="H4">
-        <v>0.8288897596504512</v>
+        <v>0.4434011316664481</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2090696262872029</v>
+        <v>0.6236138074734612</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7285494954619338</v>
+        <v>2.117423545652827</v>
       </c>
       <c r="N4">
-        <v>1.723748593703235</v>
+        <v>0.9453213260555557</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2436207805673973</v>
+        <v>0.5989358904298854</v>
       </c>
       <c r="C5">
-        <v>0.02953834078065398</v>
+        <v>0.07485814692665116</v>
       </c>
       <c r="D5">
-        <v>0.0284248633566051</v>
+        <v>0.03612145562549784</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8960212325221875</v>
+        <v>0.6642074351537701</v>
       </c>
       <c r="G5">
-        <v>0.7481712900979431</v>
+        <v>0.5925008227663824</v>
       </c>
       <c r="H5">
-        <v>0.8292784951110832</v>
+        <v>0.4401732805737453</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2014915633193226</v>
+        <v>0.5976697598802616</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7046717085652574</v>
+        <v>2.019478691640543</v>
       </c>
       <c r="N5">
-        <v>1.727901593689253</v>
+        <v>0.9554364910363233</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2423884729192878</v>
+        <v>0.594574354358258</v>
       </c>
       <c r="C6">
-        <v>0.02940671839564146</v>
+        <v>0.07446071296975987</v>
       </c>
       <c r="D6">
-        <v>0.02838440724648805</v>
+        <v>0.03602981568700159</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8957120780517798</v>
+        <v>0.6620953872515187</v>
       </c>
       <c r="G6">
-        <v>0.7479023883238511</v>
+        <v>0.5907091051616931</v>
       </c>
       <c r="H6">
-        <v>0.8293486012188822</v>
+        <v>0.4396485006855073</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2002337098711706</v>
+        <v>0.5933638270097958</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7007143481772857</v>
+        <v>2.003316875175869</v>
       </c>
       <c r="N6">
-        <v>1.728600120253859</v>
+        <v>0.9571365030227668</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2509500830099114</v>
+        <v>0.6248694054087878</v>
       </c>
       <c r="C7">
-        <v>0.03031881438927542</v>
+        <v>0.07721733377263718</v>
       </c>
       <c r="D7">
-        <v>0.02866437982522285</v>
+        <v>0.03666404683784918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8979048574030912</v>
+        <v>0.6768692783480148</v>
       </c>
       <c r="G7">
-        <v>0.7498107939264855</v>
+        <v>0.6032583770447957</v>
       </c>
       <c r="H7">
-        <v>0.8288946297353448</v>
+        <v>0.4433568415120845</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2089673940031389</v>
+        <v>0.623263771779591</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7282269627317106</v>
+        <v>2.116095584711161</v>
       </c>
       <c r="N7">
-        <v>1.723804004127182</v>
+        <v>0.9454563666097258</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2889278510871804</v>
+        <v>0.7591728133277229</v>
       </c>
       <c r="C8">
-        <v>0.03430621386409172</v>
+        <v>0.08933511463565225</v>
       </c>
       <c r="D8">
-        <v>0.02987897818983498</v>
+        <v>0.03941466911586389</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.908743220459229</v>
+        <v>0.7450677050409666</v>
       </c>
       <c r="G8">
-        <v>0.7592719026954029</v>
+        <v>0.6616163515347893</v>
       </c>
       <c r="H8">
-        <v>0.8276992985167766</v>
+        <v>0.4614304857779246</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2475748356261107</v>
+        <v>0.7555859195353065</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8507705626288811</v>
+        <v>2.631048078849247</v>
       </c>
       <c r="N8">
-        <v>1.703938619192542</v>
+        <v>0.8969772465352861</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3640966742646299</v>
+        <v>1.025726127058732</v>
       </c>
       <c r="C9">
-        <v>0.04198932602071181</v>
+        <v>0.1129561097780254</v>
       </c>
       <c r="D9">
-        <v>0.03218452301479857</v>
+        <v>0.04460907776244483</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9341891021150985</v>
+        <v>0.8915751847961531</v>
       </c>
       <c r="G9">
-        <v>0.7815841374593049</v>
+        <v>0.7888058091498493</v>
       </c>
       <c r="H9">
-        <v>0.8282622403939399</v>
+        <v>0.5038865652093563</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3235128745002953</v>
+        <v>1.017274928469817</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.095590066422005</v>
+        <v>3.732225517639463</v>
       </c>
       <c r="N9">
-        <v>1.669666600448416</v>
+        <v>0.8139584312770012</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4197411787082501</v>
+        <v>1.224498828611189</v>
       </c>
       <c r="C10">
-        <v>0.04755043368105305</v>
+        <v>0.1302384575056124</v>
       </c>
       <c r="D10">
-        <v>0.03383090674083888</v>
+        <v>0.04827095957814009</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.955458280623958</v>
+        <v>1.009146704722937</v>
       </c>
       <c r="G10">
-        <v>0.8002929908857794</v>
+        <v>0.8922520487436429</v>
       </c>
       <c r="H10">
-        <v>0.8304525804958587</v>
+        <v>0.5402961633835872</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3794388716311801</v>
+        <v>1.211730075447178</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.278637452005171</v>
+        <v>4.633685390497646</v>
       </c>
       <c r="N10">
-        <v>1.647356370700479</v>
+        <v>0.7614179247341042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4451452708037493</v>
+        <v>1.315798800812814</v>
       </c>
       <c r="C11">
-        <v>0.05006204158269156</v>
+        <v>0.1380835685295665</v>
       </c>
       <c r="D11">
-        <v>0.03456937105467262</v>
+        <v>0.04989312592379491</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9656973931339081</v>
+        <v>1.065351406606567</v>
       </c>
       <c r="G11">
-        <v>0.8093125455051506</v>
+        <v>0.9420706712739531</v>
       </c>
       <c r="H11">
-        <v>0.8318359343193151</v>
+        <v>0.5582373242761207</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4049094492698089</v>
+        <v>1.300861873101667</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.362696580864935</v>
+        <v>5.075203118197223</v>
       </c>
       <c r="N11">
-        <v>1.637833022364504</v>
+        <v>0.7396354722913117</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4547780446199852</v>
+        <v>1.350518309183116</v>
       </c>
       <c r="C12">
-        <v>0.05101048768428029</v>
+        <v>0.1410511844641036</v>
       </c>
       <c r="D12">
-        <v>0.03484748050702535</v>
+        <v>0.05049993329530622</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9696560145661124</v>
+        <v>1.087081382702678</v>
       </c>
       <c r="G12">
-        <v>0.8128015748975344</v>
+        <v>0.961391033731303</v>
       </c>
       <c r="H12">
-        <v>0.8324154906566577</v>
+        <v>0.5652533721646762</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4145585492597661</v>
+        <v>1.33472637033131</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.3946488791576</v>
+        <v>5.248218885216218</v>
       </c>
       <c r="N12">
-        <v>1.634317038578189</v>
+        <v>0.7317192310428098</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4527028902537609</v>
+        <v>1.34303400986721</v>
       </c>
       <c r="C13">
-        <v>0.05080634102064607</v>
+        <v>0.1404122147242077</v>
       </c>
       <c r="D13">
-        <v>0.03478765312213028</v>
+        <v>0.05036960182736294</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9687998353013683</v>
+        <v>1.082380606984302</v>
       </c>
       <c r="G13">
-        <v>0.8120468744887432</v>
+        <v>0.9572087699151695</v>
       </c>
       <c r="H13">
-        <v>0.8322881940191706</v>
+        <v>0.5637320397764967</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4124802723470111</v>
+        <v>1.32742781038354</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.387761882820485</v>
+        <v>5.210672857276151</v>
       </c>
       <c r="N13">
-        <v>1.635070247108807</v>
+        <v>0.7334088753761208</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4459375102281911</v>
+        <v>1.318652147302487</v>
       </c>
       <c r="C14">
-        <v>0.05014012401730383</v>
+        <v>0.1383277859715406</v>
       </c>
       <c r="D14">
-        <v>0.0345922821026079</v>
+        <v>0.04994320624112447</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9660214407153234</v>
+        <v>1.067129847473112</v>
       </c>
       <c r="G14">
-        <v>0.8095981145621067</v>
+        <v>0.9436506782519416</v>
       </c>
       <c r="H14">
-        <v>0.8318824978635604</v>
+        <v>0.5588099365345727</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.405703209220718</v>
+        <v>1.303645588865578</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.365322849361377</v>
+        <v>5.089311669767909</v>
       </c>
       <c r="N14">
-        <v>1.637541948583262</v>
+        <v>0.7389773667948205</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4417951768134856</v>
+        <v>1.303737203387442</v>
       </c>
       <c r="C15">
-        <v>0.04973170139452066</v>
+        <v>0.1370505688271919</v>
       </c>
       <c r="D15">
-        <v>0.03447241164374759</v>
+        <v>0.04968101190010543</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9643301875311181</v>
+        <v>1.057848256393299</v>
       </c>
       <c r="G15">
-        <v>0.8081077634380307</v>
+        <v>0.935407124819676</v>
       </c>
       <c r="H15">
-        <v>0.8316412543800737</v>
+        <v>0.555824707109096</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4015525670527325</v>
+        <v>1.289093361164163</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.351594263080585</v>
+        <v>5.015777991134755</v>
       </c>
       <c r="N15">
-        <v>1.639067706880013</v>
+        <v>0.742432388228508</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4180827688831812</v>
+        <v>1.218551502524349</v>
       </c>
       <c r="C16">
-        <v>0.04738592581635714</v>
+        <v>0.1297253738288902</v>
       </c>
       <c r="D16">
-        <v>0.03378243339876974</v>
+        <v>0.0481639745824225</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9548004930713176</v>
+        <v>1.005532865297084</v>
       </c>
       <c r="G16">
-        <v>0.7997138104182824</v>
+        <v>0.8890565860754407</v>
       </c>
       <c r="H16">
-        <v>0.830369967254498</v>
+        <v>0.5391533631165828</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3777748781845958</v>
+        <v>1.205919968215881</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.273160509059991</v>
+        <v>4.605566648481087</v>
       </c>
       <c r="N16">
-        <v>1.647991362278908</v>
+        <v>0.7628863714310867</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4035590950264805</v>
+        <v>1.166531444102247</v>
       </c>
       <c r="C17">
-        <v>0.04594219199323391</v>
+        <v>0.1252269653697056</v>
       </c>
       <c r="D17">
-        <v>0.03335645226948003</v>
+        <v>0.04722139649108925</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.949098868842924</v>
+        <v>0.9741725323991943</v>
       </c>
       <c r="G17">
-        <v>0.7946949598590436</v>
+        <v>0.8613674980708907</v>
       </c>
       <c r="H17">
-        <v>0.8296892292510734</v>
+        <v>0.5292949498566912</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3631953899459006</v>
+        <v>1.155079173746088</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.22525142959384</v>
+        <v>4.362781732097176</v>
       </c>
       <c r="N17">
-        <v>1.6536262211267</v>
+        <v>0.7759953948512717</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3952140577759451</v>
+        <v>1.13669218752193</v>
       </c>
       <c r="C18">
-        <v>0.04511008641080139</v>
+        <v>0.1226380993596621</v>
       </c>
       <c r="D18">
-        <v>0.03311045379273025</v>
+        <v>0.04667523104670579</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9458724849509963</v>
+        <v>0.9563872317541779</v>
       </c>
       <c r="G18">
-        <v>0.7918561193228584</v>
+        <v>0.845697308196165</v>
       </c>
       <c r="H18">
-        <v>0.8293341049032392</v>
+        <v>0.5237527560013149</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3548124546300357</v>
+        <v>1.125899320266171</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.197769298738194</v>
+        <v>4.226001461938367</v>
       </c>
       <c r="N18">
-        <v>1.656926115542383</v>
+        <v>0.7837329081223317</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3923900572998775</v>
+        <v>1.126602499113659</v>
       </c>
       <c r="C19">
-        <v>0.04482805738992113</v>
+        <v>0.1217613097236097</v>
       </c>
       <c r="D19">
-        <v>0.03302699440436641</v>
+        <v>0.04648964948494694</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9447891891763334</v>
+        <v>0.9504072308094038</v>
       </c>
       <c r="G19">
-        <v>0.7909031475950314</v>
+        <v>0.8404339723779231</v>
       </c>
       <c r="H19">
-        <v>0.8292201187632742</v>
+        <v>0.5218975953155507</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3519746271132362</v>
+        <v>1.116029775093352</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.188476794104588</v>
+        <v>4.180147950807935</v>
       </c>
       <c r="N19">
-        <v>1.658053504598193</v>
+        <v>0.7863858414095404</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4051042775038525</v>
+        <v>1.17206051157433</v>
       </c>
       <c r="C20">
-        <v>0.04609605693977414</v>
+        <v>0.1257059874808704</v>
       </c>
       <c r="D20">
-        <v>0.03340190084234251</v>
+        <v>0.04732215910569693</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9497003253660807</v>
+        <v>0.9774844058740513</v>
       </c>
       <c r="G20">
-        <v>0.7952242681968755</v>
+        <v>0.8642881793198711</v>
       </c>
       <c r="H20">
-        <v>0.8297579253615908</v>
+        <v>0.530330974659833</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3647471137100808</v>
+        <v>1.160484690292748</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.230343731499929</v>
+        <v>4.388322021094453</v>
       </c>
       <c r="N20">
-        <v>1.653020285330101</v>
+        <v>0.7745792823736153</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4479243215287738</v>
+        <v>1.325809558928995</v>
       </c>
       <c r="C21">
-        <v>0.0503358801554441</v>
+        <v>0.1389401281242471</v>
       </c>
       <c r="D21">
-        <v>0.03464970904276043</v>
+        <v>0.05006866310574054</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9668353144008393</v>
+        <v>1.071596761892224</v>
       </c>
       <c r="G21">
-        <v>0.810315376559771</v>
+        <v>0.9476201522728473</v>
       </c>
       <c r="H21">
-        <v>0.832000148158258</v>
+        <v>0.5602494397070643</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4076936923102323</v>
+        <v>1.310627836108779</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.371910396015082</v>
+        <v>5.124788028362204</v>
       </c>
       <c r="N21">
-        <v>1.63681349653811</v>
+        <v>0.7373325083195397</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4759841345143059</v>
+        <v>1.427155561619998</v>
       </c>
       <c r="C22">
-        <v>0.05309141551904872</v>
+        <v>0.1475701213339136</v>
       </c>
       <c r="D22">
-        <v>0.03545628940837275</v>
+        <v>0.05181925893779038</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9785079639866439</v>
+        <v>1.135739881335923</v>
       </c>
       <c r="G22">
-        <v>0.8206069853408309</v>
+        <v>1.004770183303222</v>
       </c>
       <c r="H22">
-        <v>0.8337903248114031</v>
+        <v>0.5811116268760657</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4357846166890056</v>
+        <v>1.409416066095446</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.465140809049089</v>
+        <v>5.640972314183401</v>
       </c>
       <c r="N22">
-        <v>1.626747926391204</v>
+        <v>0.7149421654172272</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4610013749589257</v>
+        <v>1.372979527138625</v>
       </c>
       <c r="C23">
-        <v>0.05162215755679256</v>
+        <v>0.14296632929846</v>
       </c>
       <c r="D23">
-        <v>0.03502662751023422</v>
+        <v>0.05088949502641782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9722346055842621</v>
+        <v>1.10124356255659</v>
       </c>
       <c r="G23">
-        <v>0.8150748160542349</v>
+        <v>0.9740001819540964</v>
       </c>
       <c r="H23">
-        <v>0.8328051362899629</v>
+        <v>0.5698483825809149</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4207899717383725</v>
+        <v>1.356625427300827</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.415314690538509</v>
+        <v>5.361743533192424</v>
       </c>
       <c r="N23">
-        <v>1.632071825415458</v>
+        <v>0.7267034996570487</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4044056854805831</v>
+        <v>1.169560610592896</v>
       </c>
       <c r="C24">
-        <v>0.04602650108606099</v>
+        <v>0.1254894298569269</v>
       </c>
       <c r="D24">
-        <v>0.03338135695498323</v>
+        <v>0.04727661752639989</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9494282463049899</v>
+        <v>0.9759863513807545</v>
       </c>
       <c r="G24">
-        <v>0.7949848228889635</v>
+        <v>0.8629669691418229</v>
       </c>
       <c r="H24">
-        <v>0.8297267549720573</v>
+        <v>0.5298621985766943</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3640455824672983</v>
+        <v>1.158040704198498</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.228041310997895</v>
+        <v>4.37676662762901</v>
       </c>
       <c r="N24">
-        <v>1.653294040985863</v>
+        <v>0.7752188829185442</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3436877254603985</v>
+        <v>0.9531764939034133</v>
       </c>
       <c r="C25">
-        <v>0.03992548624762549</v>
+        <v>0.106579101529519</v>
       </c>
       <c r="D25">
-        <v>0.03156908162210925</v>
+        <v>0.04322815753315012</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9268546352191436</v>
+        <v>0.8503674799932952</v>
       </c>
       <c r="G25">
-        <v>0.7751431425863871</v>
+        <v>0.7528192366703053</v>
       </c>
       <c r="H25">
-        <v>0.8277982722988213</v>
+        <v>0.4915595474373191</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3029456556859884</v>
+        <v>0.9461596187567807</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.028833229057994</v>
+        <v>3.421246708759924</v>
       </c>
       <c r="N25">
-        <v>1.678435218975068</v>
+        <v>0.8350202515053269</v>
       </c>
       <c r="O25">
         <v>0</v>
